--- a/medicine/Enfance/Geoffroy_de_Pennart/Geoffroy_de_Pennart.xlsx
+++ b/medicine/Enfance/Geoffroy_de_Pennart/Geoffroy_de_Pennart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geoffroy de Pennart est un auteur-illustrateur de littérature d'enfance et de jeunesse, né en 1951 à Neuilly-sur-Seine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l’École supérieure d'arts graphiques Penninghen en 1974, il travaille dans la communication d'entreprise. Il est aussi maquettiste et graphiste.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Auteur et illustrateur
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur
 La Galette à l'escampette", Kaléidoscope 2012.
 Le retour de Chapeau rond rouge, Kaléidoscope 2011.
 La princesse, le dragon et le chevalier intrépide, Kaléidoscope, 2011.
